--- a/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
+++ b/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -113,19 +113,19 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Clica para realizar a liquidação.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Registrar Liquidações</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Clica para atribuir/desatribuir o registro a si mesmo.</t>
   </si>
   <si>
     <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pela liquidação) no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Clica para realizar a liquidação.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Registrar Liquidações</t>
   </si>
   <si>
     <t>TC4</t>

--- a/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
+++ b/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
@@ -113,19 +113,19 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Clica para atribuir/desatribuir o registro a si mesmo.</t>
+  </si>
+  <si>
+    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pela liquidação) no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Clica para realizar a liquidação.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Registrar Liquidações</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Clica para atribuir/desatribuir o registro a si mesmo.</t>
-  </si>
-  <si>
-    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pela liquidação) no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
   </si>
   <si>
     <t>TC4</t>

--- a/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
+++ b/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
@@ -113,19 +113,19 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Clica para realizar a liquidação.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Registrar Liquidações</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Clica para atribuir/desatribuir o registro a si mesmo.</t>
   </si>
   <si>
     <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pela liquidação) no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Clica para realizar a liquidação.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Registrar Liquidações</t>
   </si>
   <si>
     <t>TC4</t>

--- a/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
+++ b/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
@@ -101,7 +101,7 @@
     <t>Chefe Visualiza a lista de diárias (solicitações) aptas para pagamento.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a lista de diárias (solicitações) aptas para pagamento.</t>
+    <t>SYSTEM Exibe a lista de diárias (solicitações) aptas para pagamento ordenado pelo numero da diaria em ordem crescente.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>

--- a/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
+++ b/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
@@ -101,7 +101,7 @@
     <t>Chefe Visualiza a lista de diárias (solicitações) aptas para pagamento.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a lista de diárias (solicitações) aptas para pagamento ordenado pelo numero da diaria em ordem crescente.</t>
+    <t>SYSTEM Exibe a lista de diárias (solicitações) aptas para pagamento ordenado pelo numero da diaria em ordem crescente. Exibe esta lista de diarias também ordenada pela data de chegada da solicitação na fase de liquidação (após registrar o empenho).</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>
@@ -113,19 +113,19 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Clica para atribuir/desatribuir o registro a si mesmo.</t>
+  </si>
+  <si>
+    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pela liquidação) no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Clica para realizar a liquidação.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Registrar Liquidações</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Clica para atribuir/desatribuir o registro a si mesmo.</t>
-  </si>
-  <si>
-    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pela liquidação) no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
   </si>
   <si>
     <t>TC4</t>

--- a/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
+++ b/output/xlsx/UC012 - Listar Liquidações Pendentes--GT-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela inicial do sistema</t>
+    <t>O usuário devidamente autenticado e na tela inicial do sistema.</t>
   </si>
   <si>
     <t>#</t>
@@ -101,7 +101,7 @@
     <t>Chefe Visualiza a lista de diárias (solicitações) aptas para pagamento.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a lista de diárias (solicitações) aptas para pagamento ordenado pelo numero da diaria em ordem crescente. Exibe esta lista de diarias também ordenada pela data de chegada da solicitação na fase de liquidação (após registrar o empenho).</t>
+    <t>SYSTEM Exibe a lista de diárias (solicitações) aptas para pagamento ordenado pelo número da diária em ordem crescente. Exibe esta lista de diárias também ordenada pela data de chegada da solicitação na fase de liquidação (após registrar o empenho).</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>
@@ -113,19 +113,19 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Clica para realizar a liquidação.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Registrar Liquidações.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Clica para atribuir/desatribuir o registro a si mesmo.</t>
   </si>
   <si>
-    <t>SYSTEM Atualiza a lista de registros de solicitações, onde o nome deverá constar o nome do usuário logado (que se atribuiu como responsável pela liquidação) no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Clica para realizar a liquidação.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Registrar Liquidações</t>
+    <t>SYSTEM Atualiza a lista de registros de solicitações, onde deverá constar o nome do usuário logado (que se atribuiu como responsável pela liquidação) no campo de atribuição (no caso de desatribuição, o nome deverá ser removido).</t>
   </si>
   <si>
     <t>TC4</t>
@@ -134,7 +134,7 @@
     <t>Chefe Clica para detalhar a solicitação de diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias.</t>
   </si>
 </sst>
 </file>
